--- a/ig/ch-vacd/ValueSet-ch-vacd-risks-social-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-risks-social-vs.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-risks-social-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-risks-social-vs.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOWMED CT 2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: ch-vacd-risks-social-vs (use: OFFICIAL)</t>
+    <t>http://e-health-suisse.ch/ns/vs#ch-vacd-risks-social-vs (use: official)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:15:40+01:00</t>
+    <t>2024-05-17T07:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,7 +79,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Residence or stay in Switzerland except Geneva and Ticino (finding)</t>
+  </si>
+  <si>
+    <t>102311000195108</t>
+  </si>
+  <si>
+    <t>Residence or stay in Switzerland except Ticino (finding)</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,17 +574,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B6" t="s" s="2">
         <v>46</v>
       </c>
     </row>

--- a/ig/ch-vacd/ValueSet-ch-vacd-risks-social-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-risks-social-vs.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOWMED CT 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>http://e-health-suisse.ch/ns/vs#ch-vacd-risks-social-vs (use: official)</t>
+    <t>http://e-health-suisse.ch/ns/vs#ch-vacd-risks-social-vs (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:15:18+00:00</t>
+    <t>2024-12-18T07:33:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>Has contact with injecting drug user (situation)</t>
+  </si>
+  <si>
+    <t>1342377006</t>
+  </si>
+  <si>
+    <t>Has contact with wild bird (situation)</t>
+  </si>
+  <si>
+    <t>1342378001</t>
+  </si>
+  <si>
+    <t>Has contact with poultry bird (situation)</t>
   </si>
   <si>
     <t/>
@@ -449,7 +461,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -520,15 +532,31 @@
         <v>44</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -558,42 +586,42 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-vacd/ValueSet-ch-vacd-risks-social-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-risks-social-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -28,16 +28,10 @@
     <t>http://fhir.ch/ig/ch-vacd/ValueSet/ch-vacd-risks-social-vs</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>http://e-health-suisse.ch/ns/vs#ch-vacd-risks-social-vs (use: official, )</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T07:33:04+00:00</t>
+    <t>2025-05-22T09:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,6 +142,15 @@
     <t>Has contact with injecting drug user (situation)</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
     <t>1342377006</t>
   </si>
   <si>
@@ -158,15 +161,6 @@
   </si>
   <si>
     <t>Has contact with poultry bird (situation)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>72281000195108</t>
@@ -318,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -428,15 +422,15 @@
       <c r="A13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -444,14 +438,6 @@
       </c>
       <c r="B15" t="s" s="2">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,90 +459,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +536,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -578,50 +548,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-vacd/ValueSet-ch-vacd-risks-social-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-risks-social-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T09:46:13+00:00</t>
+    <t>2025-12-16T10:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
